--- a/data/massa.xlsx
+++ b/data/massa.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
+  <xr:revisionPtr documentId="13_ncr:801_{98649B42-7239-4AC2-8E6F-EFE44D204470}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView windowHeight="4635" windowWidth="15345" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="3495" windowWidth="11340" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" r:id="rId1" sheetId="1"/>
+    <sheet name="Web" r:id="rId1" sheetId="1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -45,20 +42,6 @@
   </si>
   <si>
     <t>Redecard01</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Failed - org.openqa.selenium.NoSuchElementException: Unable to find element with id == main-content (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 0 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.13.0', revision: '2f0d292', time: '2018-06-25T15:24:21.231Z'
-System info: host: 'DENNIS-NOTE', ip: '192.168.0.107', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_181'
-Driver info: org.openqa.selenium.ie.InternetExplorerDriver
-Capabilities {browserName: internet explorer, javascriptEnabled: true, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, se:ieOptions: {browserAttachTimeout: 0, elementScrollBehavior: 0, enableElementCacheCleanup: true, enablePersistentHover: true, ie.browserCommandLineSwitches: , ie.enableFullPageScreenshot: true, ie.ensureCleanSession: false, ie.fileUploadDialogTimeout: 3000, ie.forceCreateProcessApi: false, ie.forceShellWindowsApi: false, ie.useLegacyFileUploadDialogHandling: false, ignoreProtectedModeSettings: false, ignoreZoomSetting: false, initialBrowserUrl: http://localhost:40759/, nativeEvents: true, requireWindowFocus: false}, unexpectedAlertBehaviour: dismiss, unhandledPromptBehavior: dismiss, version: 11}
-Session ID: 19629f2f-68ad-409d-bae6-547344bec9e6
-*** Element info: {Using=id, value=main-content}</t>
   </si>
   <si>
     <t>Failed - org.openqa.selenium.NoSuchElementException: Unable to find element with id == main-content (WARNING: The server did not provide any stacktrace information)
@@ -75,9 +58,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +72,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,9 +106,10 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hiperlink" xfId="1"/>
@@ -398,8 +390,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -437,13 +429,17 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId1" ref="B2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins bottom="0.78740157499999996" footer="0.31496062000000002" header="0.31496062000000002" left="0.511811024" right="0.511811024" top="0.78740157499999996"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/massa.xlsx
+++ b/data/massa.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr documentId="13_ncr:801_{98649B42-7239-4AC2-8E6F-EFE44D204470}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SempreIT\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="3495" windowWidth="11340" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView windowHeight="3495" windowWidth="11340" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Web" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Test Case Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>UserName</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Results</t>
-  </si>
-  <si>
-    <t>WebExample</t>
   </si>
   <si>
     <t>densilva@inmetrics.com.br</t>
@@ -54,11 +51,72 @@
 Session ID: d04b2c06-2e8e-47f1-b4f8-c5a6552a92a6
 *** Element info: {Using=id, value=main-content}</t>
   </si>
+  <si>
+    <t>Case ID</t>
+  </si>
+  <si>
+    <t>Run ID</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>Failed - org.openqa.selenium.NoSuchWindowException: Unable to find element on closed window (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 0 milliseconds
+Build info: version: '3.13.0', revision: '2f0d292', time: '2018-06-25T15:24:21.231Z'
+System info: host: 'DESKTOP-247K9CA', ip: '192.168.0.104', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.ie.InternetExplorerDriver
+Capabilities {browserName: internet explorer, javascriptEnabled: true, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, se:ieOptions: {browserAttachTimeout: 0, elementScrollBehavior: 0, enableElementCacheCleanup: true, enablePersistentHover: true, ie.browserCommandLineSwitches: , ie.enableFullPageScreenshot: true, ie.ensureCleanSession: false, ie.fileUploadDialogTimeout: 3000, ie.forceCreateProcessApi: false, ie.forceShellWindowsApi: false, ie.useLegacyFileUploadDialogHandling: false, ignoreProtectedModeSettings: false, ignoreZoomSetting: false, initialBrowserUrl: http://localhost:9354/, nativeEvents: true, requireWindowFocus: false}, unexpectedAlertBehaviour: dismiss, unhandledPromptBehavior: dismiss, version: 11}
+Session ID: 447ac8ec-3e6a-43a1-a614-45877a31eeaa
+*** Element info: {Using=id, value=main-content}</t>
+  </si>
+  <si>
+    <t>Failed - org.openqa.selenium.NoSuchWindowException: Unable to find element on closed window (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 0 milliseconds
+Build info: version: '3.13.0', revision: '2f0d292', time: '2018-06-25T15:24:21.231Z'
+System info: host: 'DESKTOP-247K9CA', ip: '192.168.0.104', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.ie.InternetExplorerDriver
+Capabilities {browserName: internet explorer, javascriptEnabled: true, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, se:ieOptions: {browserAttachTimeout: 0, elementScrollBehavior: 0, enableElementCacheCleanup: true, enablePersistentHover: true, ie.browserCommandLineSwitches: , ie.enableFullPageScreenshot: true, ie.ensureCleanSession: false, ie.fileUploadDialogTimeout: 3000, ie.forceCreateProcessApi: false, ie.forceShellWindowsApi: false, ie.useLegacyFileUploadDialogHandling: false, ignoreProtectedModeSettings: false, ignoreZoomSetting: false, initialBrowserUrl: http://localhost:35429/, nativeEvents: true, requireWindowFocus: false}, unexpectedAlertBehaviour: dismiss, unhandledPromptBehavior: dismiss, version: 11}
+Session ID: d9119456-03bd-4402-b894-050fa17291c8
+*** Element info: {Using=id, value=main-content}</t>
+  </si>
+  <si>
+    <t>Failed - org.openqa.selenium.NoSuchWindowException: Unable to find element on closed window (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 0 milliseconds
+Build info: version: '3.13.0', revision: '2f0d292', time: '2018-06-25T15:24:21.231Z'
+System info: host: 'DESKTOP-247K9CA', ip: '192.168.0.104', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.ie.InternetExplorerDriver
+Capabilities {browserName: internet explorer, javascriptEnabled: true, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, se:ieOptions: {browserAttachTimeout: 0, elementScrollBehavior: 0, enableElementCacheCleanup: true, enablePersistentHover: true, ie.browserCommandLineSwitches: , ie.enableFullPageScreenshot: true, ie.ensureCleanSession: false, ie.fileUploadDialogTimeout: 3000, ie.forceCreateProcessApi: false, ie.forceShellWindowsApi: false, ie.useLegacyFileUploadDialogHandling: false, ignoreProtectedModeSettings: false, ignoreZoomSetting: false, initialBrowserUrl: http://localhost:23625/, nativeEvents: true, requireWindowFocus: false}, unexpectedAlertBehaviour: dismiss, unhandledPromptBehavior: dismiss, version: 11}
+Session ID: 88dcb031-b7ed-4f62-a937-5e9916921419
+*** Element info: {Using=id, value=main-content}</t>
+  </si>
+  <si>
+    <t>Failed - org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"id","selector":"main-content"}
+  (Session info: chrome=68.0.3440.84)
+  (Driver info: chromedriver=2.35.528161 (5b82f2d2aae0ca24b877009200ced9065a772e73),platform=Windows NT 10.0.16299 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 0 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.13.0', revision: '2f0d292', time: '2018-06-25T15:24:21.231Z'
+System info: host: 'DESKTOP-247K9CA', ip: '192.168.0.104', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, acceptSslCerts: false, applicationCacheEnabled: false, browserConnectionEnabled: false, browserName: chrome, chrome: {chromedriverVersion: 2.35.528161 (5b82f2d2aae0ca..., userDataDir: C:\Users\SempreIT\AppData\L...}, cssSelectorsEnabled: true, databaseEnabled: false, handlesAlerts: true, hasTouchScreen: false, javascriptEnabled: true, locationContextEnabled: true, mobileEmulationEnabled: false, nativeEvents: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, rotatable: false, setWindowRect: true, takesHeapSnapshot: true, takesScreenshot: true, unexpectedAlertBehaviour: , unhandledPromptBehavior: , version: 68.0.3440.84, webStorageEnabled: true}
+Session ID: 474de7604b38a3d29f3fa2518f7214b2
+*** Element info: {Using=id, value=main-content}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -390,54 +448,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink r:id="rId1" ref="D2"/>
   </hyperlinks>
   <pageMargins bottom="0.78740157499999996" footer="0.31496062000000002" header="0.31496062000000002" left="0.511811024" right="0.511811024" top="0.78740157499999996"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>

--- a/data/massa.xlsx
+++ b/data/massa.xlsx
@@ -2,19 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SempreIT\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="3495" windowWidth="11340" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="6750" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Web" r:id="rId1" sheetId="1"/>
+    <sheet name="Web" r:id="rId1" sheetId="3"/>
+    <sheet name="JSON" r:id="rId2" sheetId="1"/>
+    <sheet name="FakeAPI" r:id="rId3" sheetId="2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Content-Type</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
   <si>
     <t>UserName</t>
   </si>
@@ -32,85 +58,88 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Mozart da Silva</t>
+  </si>
+  <si>
+    <t>M0z@rt290794</t>
+  </si>
+  <si>
+    <t>Run ID</t>
+  </si>
+  <si>
+    <t>Case ID</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>PageCount</t>
+  </si>
+  <si>
+    <t>Excerpt</t>
+  </si>
+  <si>
+    <t>PublishDate</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>2018-08-06T14:17:24.618Z</t>
+  </si>
+  <si>
+    <t>dennis_mozart1234</t>
+  </si>
+  <si>
+    <t>dennis.mozart@teste.com.br</t>
+  </si>
+  <si>
     <t>Results</t>
   </si>
   <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
     <t>densilva@inmetrics.com.br</t>
   </si>
   <si>
     <t>Redecard01</t>
-  </si>
-  <si>
-    <t>Failed - org.openqa.selenium.NoSuchElementException: Unable to find element with id == main-content (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 0 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.13.0', revision: '2f0d292', time: '2018-06-25T15:24:21.231Z'
-System info: host: 'DENNIS-NOTE', ip: '192.168.0.107', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_181'
-Driver info: org.openqa.selenium.ie.InternetExplorerDriver
-Capabilities {browserName: internet explorer, javascriptEnabled: true, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, se:ieOptions: {browserAttachTimeout: 0, elementScrollBehavior: 0, enableElementCacheCleanup: true, enablePersistentHover: true, ie.browserCommandLineSwitches: , ie.enableFullPageScreenshot: true, ie.ensureCleanSession: false, ie.fileUploadDialogTimeout: 3000, ie.forceCreateProcessApi: false, ie.forceShellWindowsApi: false, ie.useLegacyFileUploadDialogHandling: false, ignoreProtectedModeSettings: false, ignoreZoomSetting: false, initialBrowserUrl: http://localhost:27970/, nativeEvents: true, requireWindowFocus: false}, unexpectedAlertBehaviour: dismiss, unhandledPromptBehavior: dismiss, version: 11}
-Session ID: d04b2c06-2e8e-47f1-b4f8-c5a6552a92a6
-*** Element info: {Using=id, value=main-content}</t>
-  </si>
-  <si>
-    <t>Case ID</t>
-  </si>
-  <si>
-    <t>Run ID</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>T8</t>
-  </si>
-  <si>
-    <t>Test ID</t>
-  </si>
-  <si>
-    <t>Failed - org.openqa.selenium.NoSuchWindowException: Unable to find element on closed window (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 0 milliseconds
-Build info: version: '3.13.0', revision: '2f0d292', time: '2018-06-25T15:24:21.231Z'
-System info: host: 'DESKTOP-247K9CA', ip: '192.168.0.104', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
-Driver info: org.openqa.selenium.ie.InternetExplorerDriver
-Capabilities {browserName: internet explorer, javascriptEnabled: true, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, se:ieOptions: {browserAttachTimeout: 0, elementScrollBehavior: 0, enableElementCacheCleanup: true, enablePersistentHover: true, ie.browserCommandLineSwitches: , ie.enableFullPageScreenshot: true, ie.ensureCleanSession: false, ie.fileUploadDialogTimeout: 3000, ie.forceCreateProcessApi: false, ie.forceShellWindowsApi: false, ie.useLegacyFileUploadDialogHandling: false, ignoreProtectedModeSettings: false, ignoreZoomSetting: false, initialBrowserUrl: http://localhost:9354/, nativeEvents: true, requireWindowFocus: false}, unexpectedAlertBehaviour: dismiss, unhandledPromptBehavior: dismiss, version: 11}
-Session ID: 447ac8ec-3e6a-43a1-a614-45877a31eeaa
-*** Element info: {Using=id, value=main-content}</t>
-  </si>
-  <si>
-    <t>Failed - org.openqa.selenium.NoSuchWindowException: Unable to find element on closed window (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 0 milliseconds
-Build info: version: '3.13.0', revision: '2f0d292', time: '2018-06-25T15:24:21.231Z'
-System info: host: 'DESKTOP-247K9CA', ip: '192.168.0.104', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
-Driver info: org.openqa.selenium.ie.InternetExplorerDriver
-Capabilities {browserName: internet explorer, javascriptEnabled: true, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, se:ieOptions: {browserAttachTimeout: 0, elementScrollBehavior: 0, enableElementCacheCleanup: true, enablePersistentHover: true, ie.browserCommandLineSwitches: , ie.enableFullPageScreenshot: true, ie.ensureCleanSession: false, ie.fileUploadDialogTimeout: 3000, ie.forceCreateProcessApi: false, ie.forceShellWindowsApi: false, ie.useLegacyFileUploadDialogHandling: false, ignoreProtectedModeSettings: false, ignoreZoomSetting: false, initialBrowserUrl: http://localhost:35429/, nativeEvents: true, requireWindowFocus: false}, unexpectedAlertBehaviour: dismiss, unhandledPromptBehavior: dismiss, version: 11}
-Session ID: d9119456-03bd-4402-b894-050fa17291c8
-*** Element info: {Using=id, value=main-content}</t>
-  </si>
-  <si>
-    <t>Failed - org.openqa.selenium.NoSuchWindowException: Unable to find element on closed window (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 0 milliseconds
-Build info: version: '3.13.0', revision: '2f0d292', time: '2018-06-25T15:24:21.231Z'
-System info: host: 'DESKTOP-247K9CA', ip: '192.168.0.104', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
-Driver info: org.openqa.selenium.ie.InternetExplorerDriver
-Capabilities {browserName: internet explorer, javascriptEnabled: true, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, se:ieOptions: {browserAttachTimeout: 0, elementScrollBehavior: 0, enableElementCacheCleanup: true, enablePersistentHover: true, ie.browserCommandLineSwitches: , ie.enableFullPageScreenshot: true, ie.ensureCleanSession: false, ie.fileUploadDialogTimeout: 3000, ie.forceCreateProcessApi: false, ie.forceShellWindowsApi: false, ie.useLegacyFileUploadDialogHandling: false, ignoreProtectedModeSettings: false, ignoreZoomSetting: false, initialBrowserUrl: http://localhost:23625/, nativeEvents: true, requireWindowFocus: false}, unexpectedAlertBehaviour: dismiss, unhandledPromptBehavior: dismiss, version: 11}
-Session ID: 88dcb031-b7ed-4f62-a937-5e9916921419
-*** Element info: {Using=id, value=main-content}</t>
-  </si>
-  <si>
-    <t>Failed - org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"id","selector":"main-content"}
-  (Session info: chrome=68.0.3440.84)
-  (Driver info: chromedriver=2.35.528161 (5b82f2d2aae0ca24b877009200ced9065a772e73),platform=Windows NT 10.0.16299 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 0 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.13.0', revision: '2f0d292', time: '2018-06-25T15:24:21.231Z'
-System info: host: 'DESKTOP-247K9CA', ip: '192.168.0.104', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_181'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, acceptSslCerts: false, applicationCacheEnabled: false, browserConnectionEnabled: false, browserName: chrome, chrome: {chromedriverVersion: 2.35.528161 (5b82f2d2aae0ca..., userDataDir: C:\Users\SempreIT\AppData\L...}, cssSelectorsEnabled: true, databaseEnabled: false, handlesAlerts: true, hasTouchScreen: false, javascriptEnabled: true, locationContextEnabled: true, mobileEmulationEnabled: false, nativeEvents: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, rotatable: false, setWindowRect: true, takesHeapSnapshot: true, takesScreenshot: true, unexpectedAlertBehaviour: , unhandledPromptBehavior: , version: 68.0.3440.84, webStorageEnabled: true}
-Session ID: 474de7604b38a3d29f3fa2518f7214b2
-*** Element info: {Using=id, value=main-content}</t>
   </si>
 </sst>
 </file>
@@ -118,8 +147,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -134,24 +179,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,15 +208,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hiperlink" xfId="1"/>
@@ -189,7 +259,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
@@ -227,14 +297,14 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -267,9 +337,9 @@
         <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -299,7 +369,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -449,69 +519,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E3" s="2"/>
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
   </hyperlinks>
   <pageMargins bottom="0.78740157499999996" footer="0.31496062000000002" header="0.31496062000000002" left="0.511811024" right="0.511811024" top="0.78740157499999996"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.78740157499999996" footer="0.31496062000000002" header="0.31496062000000002" left="0.511811024" right="0.511811024" top="0.78740157499999996"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.78740157499999996" footer="0.31496062000000002" header="0.31496062000000002" left="0.511811024" right="0.511811024" top="0.78740157499999996"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>